--- a/data/trans_dic/P16B03-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B03-Habitat-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16B03-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B03-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>22,85; 100</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>0; 77,15</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0; 77,15</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>23,48; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,35%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,4%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,25%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,31%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>53,74; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>74,58; 96,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>85,88; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>84,99; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>74,27; 95,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>88,52; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>83,55; 100,0</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,92%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,52%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,34%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,52%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,63%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,02%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,84%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,65%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>46,62; 92,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>52,58; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>36,67; 91,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>85,84; 98,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>85,49; 98,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>79,7; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>79,14; 95,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>83,41; 96,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>74,66; 95,43</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,97%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,12%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,9%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>37,57; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>53,06; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>77,43; 97,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>76,75; 97,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>65,6; 93,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>81,3; 98,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>72,9; 95,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>70,34; 94,69</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,99%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,78%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,2%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,43%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,26%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,95%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,05%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,44%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,74%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>42,99; 77,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>51,87; 93,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>31,28; 80,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>68,34; 89,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>87,07; 98,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>67,68; 92,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,55</t>
+          <t>63,9; 83,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>84,75; 97,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>64,12; 85,44</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,36%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,12%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,08%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,34%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,8%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,08%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,63%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,47%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,13%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>63,88; 85,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>63,95; 91,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>59,0; 86,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>83,08; 93,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>89,4; 96,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>82,46; 92,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>80,29; 89,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>87,4; 94,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>79,23; 89,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B03-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B03-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>83,94%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>85,89%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>91,64%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,18%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,38%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>89,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>83,44%</t>
+          <t>95,68%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,72%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>57,15; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>38,09; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>81,26; 100</t>
+          <t>78,24; 97,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>63,75; 100</t>
+          <t>88,37; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>63,75; 100</t>
+          <t>88,78; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>82,92; 100</t>
+          <t>79,25; 95,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,48; 100,0</t>
+          <t>85,74; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>73,58; 100</t>
+          <t>88,18; 100,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>82,48%</t>
+          <t>76,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>81,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>71,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>89,35%</t>
+          <t>94,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>96,84%</t>
+          <t>93,63%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>97,06%</t>
+          <t>94,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>87,4%</t>
+          <t>89,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>97,25%</t>
+          <t>91,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>97,31%</t>
+          <t>87,65%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>53,74; 100,0</t>
+          <t>46,62; 92,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>69,43; 100</t>
+          <t>52,58; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>36,67; 91,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>74,58; 96,68</t>
+          <t>85,84; 98,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>85,88; 100,0</t>
+          <t>85,49; 98,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>84,99; 100,0</t>
+          <t>79,7; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>74,27; 95,13</t>
+          <t>79,14; 95,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>88,52; 100,0</t>
+          <t>83,41; 96,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>83,55; 100,0</t>
+          <t>74,66; 95,43</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>76,92%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>81,52%</t>
+          <t>76,57%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>71,34%</t>
+          <t>90,34%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>94,52%</t>
+          <t>90,05%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>93,63%</t>
+          <t>89,46%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,0%</t>
+          <t>82,97%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>89,02%</t>
+          <t>92,12%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>91,84%</t>
+          <t>86,74%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>87,65%</t>
+          <t>84,9%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>46,62; 92,64</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>52,58; 100,0</t>
+          <t>37,57; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>36,67; 91,36</t>
+          <t>53,06; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>85,84; 98,25</t>
+          <t>77,43; 97,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>85,49; 98,33</t>
+          <t>76,75; 97,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>79,7; 100,0</t>
+          <t>65,6; 93,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>79,14; 95,32</t>
+          <t>81,3; 98,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>83,41; 96,11</t>
+          <t>72,9; 95,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>74,66; 95,43</t>
+          <t>70,34; 94,69</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>61,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>76,57%</t>
+          <t>79,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>90,34%</t>
+          <t>58,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>90,05%</t>
+          <t>81,43%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>89,46%</t>
+          <t>95,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>82,97%</t>
+          <t>80,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>92,12%</t>
+          <t>75,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>86,74%</t>
+          <t>92,44%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>84,9%</t>
+          <t>75,74%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>76,75; 100</t>
+          <t>42,99; 77,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,57; 100,0</t>
+          <t>51,87; 93,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>53,06; 100,0</t>
+          <t>31,28; 80,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>77,43; 97,56</t>
+          <t>68,34; 89,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>76,75; 97,82</t>
+          <t>87,07; 98,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>65,6; 93,34</t>
+          <t>67,68; 92,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>81,3; 98,05</t>
+          <t>63,9; 83,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>72,9; 95,07</t>
+          <t>84,75; 97,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>70,34; 94,69</t>
+          <t>64,12; 85,44</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>61,99%</t>
+          <t>76,36%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>79,78%</t>
+          <t>80,12%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>58,2%</t>
+          <t>75,08%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>81,43%</t>
+          <t>89,34%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>95,26%</t>
+          <t>93,8%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>80,95%</t>
+          <t>88,08%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>75,05%</t>
+          <t>85,63%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>92,44%</t>
+          <t>91,47%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>75,74%</t>
+          <t>85,13%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>42,99; 77,36</t>
+          <t>63,88; 85,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>51,87; 93,74</t>
+          <t>63,95; 91,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31,28; 80,2</t>
+          <t>59,0; 86,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>68,34; 89,87</t>
+          <t>83,08; 93,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>87,07; 98,54</t>
+          <t>89,4; 96,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>67,68; 92,02</t>
+          <t>82,46; 92,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>63,9; 83,13</t>
+          <t>80,29; 89,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>84,75; 97,41</t>
+          <t>87,4; 94,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>64,12; 85,44</t>
+          <t>79,23; 89,2</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>76,36%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>80,12%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>75,08%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>89,34%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>93,8%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>88,08%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>85,63%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>91,47%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>85,13%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>63,88; 85,53</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>63,95; 91,04</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>59,0; 86,71</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>83,08; 93,03</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>89,4; 96,58</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>82,46; 92,77</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>80,29; 89,48</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>87,4; 94,47</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>79,23; 89,2</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16B03-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B03-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>57,15; 100,0</t>
+          <t>52,21; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>38,09; 100,0</t>
+          <t>37,31; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,32 +701,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>78,24; 97,34</t>
+          <t>77,78; 97,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>88,37; 100,0</t>
+          <t>85,94; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>88,78; 100,0</t>
+          <t>87,78; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>79,25; 95,97</t>
+          <t>77,46; 96,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>85,74; 100,0</t>
+          <t>85,33; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>88,18; 100,0</t>
+          <t>88,31; 100,0</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>46,62; 92,64</t>
+          <t>52,97; 94,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>52,58; 100,0</t>
+          <t>52,51; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,67; 91,36</t>
+          <t>37,6; 91,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>85,84; 98,25</t>
+          <t>85,39; 98,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>85,49; 98,33</t>
+          <t>85,43; 98,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>79,7; 100,0</t>
+          <t>80,17; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>79,14; 95,32</t>
+          <t>79,01; 95,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>83,41; 96,11</t>
+          <t>83,94; 97,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>74,66; 95,43</t>
+          <t>75,76; 95,57</t>
         </is>
       </c>
     </row>
@@ -910,42 +911,42 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,57; 100,0</t>
+          <t>35,34; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>53,06; 100,0</t>
+          <t>57,55; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>77,43; 97,56</t>
+          <t>78,78; 97,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>76,75; 97,82</t>
+          <t>74,89; 97,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>65,6; 93,34</t>
+          <t>65,22; 93,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>81,3; 98,05</t>
+          <t>81,05; 97,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>72,9; 95,07</t>
+          <t>72,83; 94,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>70,34; 94,69</t>
+          <t>70,25; 94,85</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,99; 77,36</t>
+          <t>43,2; 80,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>51,87; 93,74</t>
+          <t>51,49; 93,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,28; 80,2</t>
+          <t>31,31; 79,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>68,34; 89,87</t>
+          <t>70,68; 90,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>87,07; 98,54</t>
+          <t>86,92; 98,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,68; 92,02</t>
+          <t>68,41; 90,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>63,9; 83,13</t>
+          <t>64,29; 83,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>84,75; 97,41</t>
+          <t>84,04; 97,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>64,12; 85,44</t>
+          <t>63,64; 84,89</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>63,88; 85,53</t>
+          <t>64,84; 85,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>63,95; 91,04</t>
+          <t>62,68; 91,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>59,0; 86,71</t>
+          <t>58,62; 87,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>83,08; 93,03</t>
+          <t>83,38; 93,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>89,4; 96,58</t>
+          <t>89,09; 96,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>82,46; 92,77</t>
+          <t>81,96; 92,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>80,29; 89,48</t>
+          <t>81,3; 89,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>87,4; 94,47</t>
+          <t>87,01; 94,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>79,23; 89,2</t>
+          <t>79,65; 89,34</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyas medicinas recostituyentes fueron recetadas por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10291</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4944</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5009</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>33085</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>36357</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>33435</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>43375</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>41301</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>38444</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6401; 12260</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2148; 5757</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3478; 5009</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>28082; 35146</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>32152; 37411</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>30137; 34334</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>37463; 46429</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>36833; 43167</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>34745; 39343</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>18070</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>9530</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8659</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>48768</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>63013</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>29317</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>66838</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>72543</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>37976</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>12444; 22275</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6139; 11691</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4564; 11059</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>44055; 50688</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>57496; 66245</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>25002; 31187</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>59328; 71967</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>66309; 76803</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>32823; 41407</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9666</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9630</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>9782</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>33094</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>42093</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>25376</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>42761</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>51724</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>35158</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7419; 9666</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4446; 12578</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6232; 10829</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>28953; 35808</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>35241; 46021</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>19947; 28523</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>37619; 45470</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>43433; 56637</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>29091; 39279</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>14447</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>10901</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>8441</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>38853</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>58361</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>39464</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>53300</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>69262</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>47905</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>10068; 18808</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7036; 12801</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4541; 11541</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>33724; 42984</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>53250; 60371</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>33350; 44088</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>45657; 59473</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>62968; 72911</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>40254; 53695</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>52475</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>35005</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>31892</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>153800</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>199826</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>127592</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>206274</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>234830</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>159485</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>44561; 58950</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>27384; 39772</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>24900; 37034</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>143551; 160205</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>189782; 205939</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>118725; 134393</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>195832; 216442</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>223382; 243307</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>149214; 167362</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>